--- a/file chấm công.xlsx
+++ b/file chấm công.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\laragon\www\qlns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9FC354-199D-4856-AFD4-C4F475CA693D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0619D340-644E-4BD9-9025-40E974804B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10872" yWindow="2256" windowWidth="17052" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12516" yWindow="2940" windowWidth="17052" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
